--- a/public/template/mlgl0010.xlsx
+++ b/public/template/mlgl0010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\WWW\PMadmin\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5FFE5F-6E55-4B26-A233-106AF2F57617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4319AF-FA86-4B0B-97D5-701C42140715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="2175" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>序号</t>
   </si>
@@ -67,6 +67,13 @@
   <si>
     <t>总价(元)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMLGL集体公司</t>
   </si>
 </sst>
 </file>
@@ -391,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -404,10 +411,10 @@
     <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +433,11 @@
       <c r="F1" t="s">
         <v>12</v>
       </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -446,8 +456,11 @@
       <c r="F2">
         <v>100</v>
       </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -466,8 +479,11 @@
       <c r="F3">
         <v>102</v>
       </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -486,8 +502,11 @@
       <c r="F4">
         <v>10</v>
       </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -506,8 +525,11 @@
       <c r="F5">
         <v>104</v>
       </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -525,6 +547,9 @@
       </c>
       <c r="F6">
         <v>108</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
